--- a/res/wordlist.xlsx
+++ b/res/wordlist.xlsx
@@ -8318,7 +8318,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -8329,13 +8329,14 @@
   <dimension ref="A1:C1326"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="58.7109375" customWidth="1"/>
     <col min="2" max="2" width="72.7109375" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
